--- a/projeto/Documentos/Planilha-Entregaveis.xlsx
+++ b/projeto/Documentos/Planilha-Entregaveis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\sprint2\Grupo-02-CCO-Luminous-\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adeli\Desktop\PROJETO\Grupo-02-CCO-Luminous-\projeto\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829B626C-E307-468D-B6C8-1DE746DFAF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DA5205-6D0F-405D-9A06-0D96D2A7A4FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="planejamento" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,17 +246,24 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -315,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -401,52 +408,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,413 +861,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="J5" s="20" t="s">
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="J5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
         <v>43929</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="J6" s="21" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="J6" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="27">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
         <v>43929</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="J7" s="21" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
         <v>43929</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="J8" s="21" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="J8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="36">
         <v>43923</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J9" s="21" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="J9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="J10" s="21" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="J10" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="39">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
         <v>43929</v>
       </c>
-      <c r="E12" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F12" s="33">
-        <v>43962</v>
-      </c>
-      <c r="J12" s="21" t="s">
+      <c r="E12" s="18">
+        <v>43962</v>
+      </c>
+      <c r="F12" s="18">
+        <v>43962</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="19">
+      <c r="C13" s="32">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
         <v>43929</v>
       </c>
-      <c r="E13" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F13" s="33">
-        <v>43962</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="E13" s="18">
+        <v>43962</v>
+      </c>
+      <c r="F13" s="18">
+        <v>43962</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="19">
+      <c r="C14" s="32">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
         <v>43929</v>
       </c>
-      <c r="E14" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F14" s="33">
-        <v>43962</v>
-      </c>
-      <c r="J14" s="21" t="s">
+      <c r="E14" s="18">
+        <v>43962</v>
+      </c>
+      <c r="F14" s="18">
+        <v>43962</v>
+      </c>
+      <c r="J14" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="36">
         <v>43930</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="32">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43929</v>
+      </c>
+      <c r="E15" s="18">
+        <v>43962</v>
+      </c>
+      <c r="F15" s="18">
+        <v>43962</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="J15" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="36">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43929</v>
+      </c>
+      <c r="E16" s="18">
+        <v>43962</v>
+      </c>
+      <c r="F16" s="18">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43929</v>
+      </c>
+      <c r="E17" s="18">
+        <v>43962</v>
+      </c>
+      <c r="F17" s="18">
+        <v>43962</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="21">
         <v>0</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D18" s="44">
         <v>43929</v>
       </c>
-      <c r="E15" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F15" s="33">
-        <v>43962</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="J15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="22">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="19">
+      <c r="E18" s="44">
+        <v>43962</v>
+      </c>
+      <c r="F18" s="44">
+        <v>43962</v>
+      </c>
+      <c r="J18" s="39"/>
+      <c r="K18" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="42">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10">
         <v>43929</v>
       </c>
-      <c r="E16" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F16" s="33">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="26">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
+      <c r="E19" s="18">
+        <v>43962</v>
+      </c>
+      <c r="F19" s="18">
+        <v>43962</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="26">
+        <v>1</v>
+      </c>
+      <c r="D20" s="33">
         <v>43929</v>
       </c>
-      <c r="E17" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F17" s="33">
-        <v>43962</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="40">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19">
+      <c r="E20" s="24">
+        <v>43962</v>
+      </c>
+      <c r="F20" s="24">
+        <v>43962</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="26">
+        <v>1</v>
+      </c>
+      <c r="D21" s="23">
         <v>43929</v>
       </c>
-      <c r="E18" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F18" s="33">
-        <v>43962</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="40">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19">
+      <c r="E21" s="24">
+        <v>43962</v>
+      </c>
+      <c r="F21" s="24">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="26">
+        <v>1</v>
+      </c>
+      <c r="D22" s="27">
         <v>43929</v>
       </c>
-      <c r="E19" s="33">
-        <v>43962</v>
-      </c>
-      <c r="F19" s="33">
-        <v>43962</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0</v>
-      </c>
-      <c r="D20" s="30">
-        <v>43929</v>
-      </c>
-      <c r="E20" s="32">
-        <v>43962</v>
-      </c>
-      <c r="F20" s="32">
-        <v>43962</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="31">
-        <v>1</v>
-      </c>
-      <c r="D21" s="30">
-        <v>43929</v>
-      </c>
-      <c r="E21" s="32">
-        <v>43962</v>
-      </c>
-      <c r="F21" s="32">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="31">
-        <v>1</v>
-      </c>
-      <c r="D22" s="34">
-        <v>43929</v>
-      </c>
-      <c r="E22" s="35">
-        <v>43962</v>
-      </c>
-      <c r="F22" s="35">
+      <c r="E22" s="28">
+        <v>43962</v>
+      </c>
+      <c r="F22" s="28">
         <v>43962</v>
       </c>
     </row>
@@ -1187,91 +1295,91 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="4">
         <v>43922</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="5">
         <v>0.71527777777777779</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="23">
-        <v>1</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="4">
         <v>43923</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23">
-        <v>1</v>
-      </c>
-      <c r="I3" s="23"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
